--- a/u-c矩阵.xlsx
+++ b/u-c矩阵.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>基础表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>室友间评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,15 +98,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>罚款规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生信息录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师选课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生选课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导员认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室友评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能认证申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能认证确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生工作申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生工作确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书借阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未归还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商品信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罚款规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加分规则</t>
+    <t>罚款缴纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期申诉表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,79 +286,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师认可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师打分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生信息录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师选课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生选课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认教室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅导员认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买记录订单</t>
+    <t>购买评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖学金确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖学金申请名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +449,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,20 +733,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="22" width="3.44140625" customWidth="1"/>
-    <col min="23" max="24" width="3.5546875" customWidth="1"/>
+    <col min="2" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="6" max="21" width="3.44140625" customWidth="1"/>
+    <col min="22" max="24" width="3.5546875" customWidth="1"/>
+    <col min="25" max="25" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -606,16 +760,16 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1">
         <v>8</v>
@@ -627,46 +781,49 @@
         <v>10</v>
       </c>
       <c r="L1">
+        <v>14</v>
+      </c>
+      <c r="M1">
+        <v>17</v>
+      </c>
+      <c r="N1">
+        <v>18</v>
+      </c>
+      <c r="O1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="Q1">
         <v>13</v>
       </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
       <c r="S1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -677,94 +834,101 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -777,22 +941,28 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -805,25 +975,27 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -835,26 +1007,26 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -865,24 +1037,26 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -893,11 +1067,11 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -907,11 +1081,13 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -921,11 +1097,11 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -935,13 +1111,15 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -949,11 +1127,11 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -962,14 +1140,16 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -977,9 +1157,12 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -993,16 +1176,21 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1016,16 +1204,21 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1039,16 +1232,23 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1056,22 +1256,29 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1079,7 +1286,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1087,14 +1296,19 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1103,9 +1317,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1115,16 +1333,21 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1134,14 +1357,18 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1158,12 +1385,159 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="V22" t="s">
+        <v>63</v>
+      </c>
+      <c r="X22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" t="s">
+        <v>65</v>
+      </c>
+      <c r="W23" t="s">
+        <v>68</v>
+      </c>
+      <c r="X23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="V24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/u-c矩阵.xlsx
+++ b/u-c矩阵.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16437\Desktop\毕设\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16437\Documents\WeChat Files\samyang110\FileStorage\File\2019-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,17 +14,22 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>基础表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,18 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>室友间评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能认证申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信用评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生工作加分申请表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>室友评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,14 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生工作申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生工作确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辅导员表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信用评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,6 +324,47 @@
   </si>
   <si>
     <t>奖学金申请名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生工作/论文写作申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生工作/论文写作确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用评分-人才招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用评分-贷款发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用评分
+人才招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用评分贷款发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行流水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -428,13 +450,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +553,66 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -744,12 +906,10 @@
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
     <col min="2" max="4" width="3.44140625" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" customWidth="1"/>
-    <col min="6" max="21" width="3.44140625" customWidth="1"/>
-    <col min="22" max="24" width="3.5546875" customWidth="1"/>
-    <col min="25" max="25" width="3.44140625" customWidth="1"/>
+    <col min="6" max="27" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -760,16 +920,16 @@
         <v>3</v>
       </c>
       <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>7</v>
-      </c>
-      <c r="H1">
-        <v>15</v>
       </c>
       <c r="I1">
         <v>8</v>
@@ -781,25 +941,25 @@
         <v>10</v>
       </c>
       <c r="L1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
         <v>17</v>
       </c>
-      <c r="N1">
+      <c r="R1">
         <v>18</v>
-      </c>
-      <c r="O1">
-        <v>11</v>
-      </c>
-      <c r="P1">
-        <v>12</v>
-      </c>
-      <c r="Q1">
-        <v>13</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
       </c>
       <c r="S1">
         <v>19</v>
@@ -822,8 +982,14 @@
       <c r="Y1">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -837,706 +1003,934 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="Y2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="10"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="10"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="10"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="10"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="10"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
+      <c r="U19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="10"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z22" s="15"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z23" s="15"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="15"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="s">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="3" t="s">
+      <c r="R25" s="15"/>
+      <c r="S25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" t="s">
-        <v>52</v>
-      </c>
-      <c r="V21" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" t="s">
-        <v>65</v>
-      </c>
-      <c r="V22" t="s">
-        <v>63</v>
-      </c>
-      <c r="X22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" t="s">
-        <v>65</v>
-      </c>
-      <c r="W23" t="s">
-        <v>68</v>
-      </c>
-      <c r="X23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" t="s">
-        <v>65</v>
-      </c>
-      <c r="V24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" t="s">
-        <v>39</v>
-      </c>
-      <c r="V25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>57</v>
+      <c r="AA25" s="18"/>
+    </row>
+    <row r="26" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/u-c矩阵.xlsx
+++ b/u-c矩阵.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16437\Documents\WeChat Files\samyang110\FileStorage\File\2019-03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yihyan\Desktop\论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC761B-00BC-4302-8BFA-BD984B145C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12708" windowHeight="6156"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>基础表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,13 +366,29 @@
   </si>
   <si>
     <t>银行流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违纪上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生违纪记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,7 +634,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,22 +911,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="4" width="3.44140625" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" customWidth="1"/>
-    <col min="6" max="27" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="3.375" customWidth="1"/>
+    <col min="6" max="28" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -950,46 +967,49 @@
         <v>13</v>
       </c>
       <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="148.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1024,57 +1044,60 @@
         <v>26</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1115,12 +1138,13 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
-      <c r="Z3" s="10"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1144,8 +1168,8 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -1153,12 +1177,13 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
-      <c r="W4" s="15"/>
+      <c r="W4" s="10"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="10"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1180,8 +1205,8 @@
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -1189,12 +1214,13 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="15"/>
+      <c r="W5" s="10"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="10"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1214,8 +1240,8 @@
         <v>28</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -1223,12 +1249,13 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="15"/>
+      <c r="W6" s="10"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="10"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1248,8 +1275,8 @@
         <v>65</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1257,69 +1284,51 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="10"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="10"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>73</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="10"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>70</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -1327,14 +1336,15 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="15"/>
+      <c r="W9" s="10"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="10"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
@@ -1344,29 +1354,32 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="8"/>
+      <c r="J10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="15"/>
+      <c r="W10" s="10"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
@@ -1381,24 +1394,25 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="8"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="15"/>
+      <c r="W11" s="10"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="10"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="10"/>
@@ -1413,26 +1427,25 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="11"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
+      <c r="W12" s="10"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="10"/>
-    </row>
-    <row r="13" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="10"/>
@@ -1442,35 +1455,34 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
+      <c r="W13" s="10"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="10"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -1478,33 +1490,36 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
+      <c r="W14" s="10"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
-      <c r="Z14" s="10"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -1513,99 +1528,102 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="10"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="15"/>
+      <c r="W16" s="10"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="10"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="F17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" s="11"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
+      <c r="W17" s="10"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="10"/>
@@ -1613,7 +1631,9 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1622,31 +1642,30 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="15"/>
+      <c r="W18" s="10"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="10"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1657,30 +1676,31 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="10"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R19" s="12"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -1693,70 +1713,69 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10" t="s">
+      <c r="T20" s="10"/>
+      <c r="U20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="X21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="10"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="10"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="15"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -1765,21 +1784,24 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="V22" s="15"/>
-      <c r="W22" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z22" s="15"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W22" s="15"/>
+      <c r="X22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1789,7 +1811,9 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -1798,23 +1822,22 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="W23" s="15"/>
       <c r="X23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y23" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z23" s="15"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA23" s="15"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1823,9 +1846,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -1835,19 +1856,24 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22" t="s">
+      <c r="T24" s="15"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="15"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA24" s="15"/>
+    </row>
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1857,41 +1883,31 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="K25" s="15"/>
-      <c r="L25" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA25" s="18"/>
-    </row>
-    <row r="26" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="21"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="15"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1899,37 +1915,83 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
         <v>74</v>
       </c>
       <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="M26" s="15"/>
-      <c r="N26" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="R26" s="15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
+      <c r="T26" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="24" t="s">
+      <c r="W26" s="15"/>
+      <c r="X26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB26" s="18"/>
+    </row>
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="23" t="s">
+      <c r="J27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="23" t="s">
         <v>80</v>
       </c>
     </row>

--- a/u-c矩阵.xlsx
+++ b/u-c矩阵.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16437\Desktop\毕设\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
   <si>
     <t>培养计划</t>
   </si>
@@ -238,6 +238,30 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作确认</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校内工作工作证明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作记录</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -808,10 +832,10 @@
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="13" width="3.44140625" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" customWidth="1"/>
-    <col min="15" max="31" width="3.44140625" customWidth="1"/>
+    <col min="15" max="33" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -882,28 +906,34 @@
         <v>23</v>
       </c>
       <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>25</v>
       </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
       <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
         <v>27</v>
       </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
       <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,37 +997,43 @@
       <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="W2" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-    </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+    </row>
+    <row r="3" spans="1:35" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>25</v>
       </c>
@@ -1050,12 +1086,14 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
       <c r="AC3" s="17"/>
-      <c r="AD3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1092,12 +1130,14 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="4"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1132,12 +1172,14 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1170,12 +1212,14 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1208,12 +1252,14 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>56</v>
       </c>
@@ -1248,12 +1294,14 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1286,12 +1334,14 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1306,7 +1356,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>59</v>
       </c>
@@ -1323,7 +1373,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1358,12 +1408,14 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1396,12 +1448,14 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1432,12 +1486,14 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1470,12 +1526,14 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1546,6 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1508,12 +1565,14 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1526,7 +1585,6 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
@@ -1546,12 +1604,14 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1626,6 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1583,15 +1642,17 @@
         <v>26</v>
       </c>
       <c r="W18" s="8"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1621,15 +1682,17 @@
         <v>28</v>
       </c>
       <c r="W19" s="4"/>
-      <c r="X19" s="11"/>
+      <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1638,9 +1701,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1657,31 +1718,34 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
+      <c r="W20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1696,30 +1760,32 @@
       <c r="U21" s="4"/>
       <c r="V21" s="10"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="4"/>
-    </row>
-    <row r="22" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1732,31 +1798,33 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="V22" s="10"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
+      <c r="Z22" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="6"/>
+      <c r="AB22" s="4"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1770,23 +1838,23 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V23" s="14"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1794,13 +1862,13 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1813,73 +1881,77 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC25" s="13"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="AD25" s="6"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -1889,20 +1961,24 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
-      <c r="AA26" s="4" t="s">
+      <c r="AA26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD26" s="6"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="6"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1915,7 +1991,9 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -1925,22 +2003,22 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="12"/>
+      <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC27" s="13" t="s">
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AD27" s="6"/>
-    </row>
-    <row r="28" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF27" s="6"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1952,9 +2030,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -1965,18 +2041,24 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="6"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF28" s="6"/>
+    </row>
+    <row r="29" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1986,46 +2068,35 @@
       <c r="I29" s="6"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O29" s="6"/>
-      <c r="P29" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE29" s="22"/>
-    </row>
-    <row r="30" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="6"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2033,50 +2104,103 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="P30" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="V30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="AC30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG30" s="22"/>
+    </row>
+    <row r="31" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
     </row>

--- a/u-c矩阵.xlsx
+++ b/u-c矩阵.xlsx
@@ -14,12 +14,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
   <si>
     <t>培养计划</t>
   </si>
@@ -82,9 +89,6 @@
   </si>
   <si>
     <t>学生罚款清单</t>
-  </si>
-  <si>
-    <t>丢书单</t>
   </si>
   <si>
     <t>逾期申诉表</t>
@@ -130,9 +134,6 @@
     <t>商品购买</t>
   </si>
   <si>
-    <t>购买评价</t>
-  </si>
-  <si>
     <t>技能认证确认</t>
   </si>
   <si>
@@ -145,9 +146,6 @@
     <t>图书借阅</t>
   </si>
   <si>
-    <t>逾期未归还</t>
-  </si>
-  <si>
     <t>书籍丢失</t>
   </si>
   <si>
@@ -166,9 +164,6 @@
     <t>信用评分-贷款发放</t>
   </si>
   <si>
-    <t>#违法</t>
-  </si>
-  <si>
     <t>购买记录订单</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -225,15 +220,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>专业表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>教务处</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作确认</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>U</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>专业表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>教务处</t>
+    <t>U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校内工作工作证明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外工作记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书归还</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书逾期归还</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定丢失</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -241,11 +280,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>校外工作确认</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>校外工作规则</t>
+    <t>确认收货</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -257,11 +292,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>校内工作工作证明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>校外工作记录</t>
+    <t>卖家评价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家评价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -281,6 +320,7 @@
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -288,6 +328,7 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -295,12 +336,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -517,9 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +582,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -832,10 +875,10 @@
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="13" width="3.44140625" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" customWidth="1"/>
-    <col min="15" max="33" width="3.44140625" customWidth="1"/>
+    <col min="15" max="32" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -912,36 +955,33 @@
         <v>24</v>
       </c>
       <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
         <v>25</v>
       </c>
-      <c r="AB1">
-        <v>26</v>
-      </c>
       <c r="AC1">
         <v>27</v>
       </c>
       <c r="AD1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1">
-        <v>30</v>
-      </c>
-      <c r="AG1">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>64</v>
+      <c r="C2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -961,14 +1001,14 @@
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27" t="s">
-        <v>60</v>
+      <c r="K2" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>53</v>
+      <c r="M2" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>7</v>
@@ -992,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>71</v>
+      <c r="W2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>20</v>
@@ -1027,51 +1067,48 @@
       <c r="AF2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+    </row>
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-    </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>66</v>
+      <c r="C3" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1090,24 +1127,23 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1116,7 +1152,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -1134,21 +1170,20 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="4"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1159,7 +1194,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="10"/>
       <c r="O5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1176,10 +1211,9 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1197,10 +1231,10 @@
       <c r="M6" s="4"/>
       <c r="N6" s="10"/>
       <c r="O6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1216,12 +1250,11 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1234,13 +1267,13 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="25" t="s">
-        <v>54</v>
+      <c r="M7" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="25" t="s">
-        <v>51</v>
+      <c r="P7" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1256,16 +1289,15 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>56</v>
+      <c r="AE7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="28" t="s">
-        <v>62</v>
+      <c r="C8" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1276,13 +1308,13 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="25" t="s">
-        <v>57</v>
+      <c r="M8" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="25" t="s">
-        <v>58</v>
+      <c r="P8" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1298,19 +1330,18 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1320,9 +1351,11 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="P9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1338,44 +1371,47 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="12"/>
-      <c r="O10" s="6"/>
+      <c r="O10" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="P10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>57</v>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="P11" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1383,7 +1419,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1393,13 +1429,15 @@
       <c r="M12" s="4"/>
       <c r="N12" s="10"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -1412,12 +1450,11 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1432,14 +1469,14 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1452,12 +1489,11 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1471,14 +1507,16 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="4"/>
@@ -1490,20 +1528,19 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="25" t="s">
-        <v>62</v>
+      <c r="G15" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1518,7 +1555,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="4"/>
@@ -1530,12 +1567,11 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1555,10 +1591,10 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -1569,12 +1605,11 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="4"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1588,16 +1623,16 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="16" t="s">
-        <v>28</v>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -1608,16 +1643,13 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="AE17" s="4"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1628,33 +1660,32 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="O18" s="4"/>
-      <c r="P18" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="9"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
+      <c r="AE18" s="4"/>
+    </row>
+    <row r="19" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1665,116 +1696,113 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="N19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE19" s="4"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z20" s="11"/>
+      <c r="V20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="9"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE20" s="4"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="10"/>
+      <c r="V21" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE21" s="4"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1782,16 +1810,15 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1799,32 +1826,31 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="W22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="11"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE22" s="4"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="G23" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1838,23 +1864,21 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="V23" s="10"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z23" s="11"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
+      <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE23" s="4"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1862,10 +1886,10 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1878,39 +1902,38 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="V24" s="10"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="4"/>
+    </row>
+    <row r="25" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1920,183 +1943,190 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="10"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="AC25" s="4"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE25" s="4"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="6"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="4"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF27" s="6"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="4"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="6"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AC28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF28" s="6"/>
-    </row>
-    <row r="29" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="4"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="6"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2106,48 +2136,38 @@
       <c r="I30" s="6"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="25" t="s">
-        <v>62</v>
+      <c r="L30" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
-      <c r="Z30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="AC30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD30" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="AD30" s="13"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG30" s="22"/>
-    </row>
-    <row r="31" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2155,54 +2175,213 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="6"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
+      <c r="AA31" s="12"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD31" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="AD31" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE32" s="6"/>
+    </row>
+    <row r="33" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="6"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF34" s="21"/>
+    </row>
+    <row r="35" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
